--- a/excel/GRUPOS_CLIENTES.xlsx
+++ b/excel/GRUPOS_CLIENTES.xlsx
@@ -1,57 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>NOMBRE_GRUPO</t>
-  </si>
-  <si>
-    <t>CLIENTES</t>
-  </si>
-  <si>
-    <t>GRUPO_SINPAR</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,31 +45,99 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -93,44 +147,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -157,15 +211,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -192,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -204,176 +256,220 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>NOMBRE_GRUPO</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CLIENTES</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>20246</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GRUPO_FERRET</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>C100</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GRUPO_CORRAL</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>C200</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/excel/GRUPOS_CLIENTES.xlsx
+++ b/excel/GRUPOS_CLIENTES.xlsx
@@ -293,7 +293,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -316,7 +316,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>20246.009580000002</v>
+        <v>20246.957999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/excel/GRUPOS_CLIENTES.xlsx
+++ b/excel/GRUPOS_CLIENTES.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>NOMBRE_GRUPO</t>
   </si>
@@ -27,10 +27,55 @@
     <t>CLIENTES</t>
   </si>
   <si>
-    <t>GRUPO_SINPAR</t>
-  </si>
-  <si>
-    <t>GRUPO_MAYORISTAS</t>
+    <t>MEJORAR</t>
+  </si>
+  <si>
+    <t>233.10167.20234.20292.20357.20379.20385.50102.50818.60124.60139.60158.60174.60258.70101</t>
+  </si>
+  <si>
+    <t>PREMIUM</t>
+  </si>
+  <si>
+    <t>33.237.251.308.946.950.952.958.963.965.969.10165.20101.20110.20128.20148.20164.20236.20241.20246.20271.20284.20293.20309.20351.20380</t>
+  </si>
+  <si>
+    <t>PREMIUM TOP</t>
+  </si>
+  <si>
+    <t>RECURRENTE_&lt;_100K</t>
+  </si>
+  <si>
+    <t>12.20.265.938.947.970.999.1000.20094.20095.20108.20117.20140.20142.20156.20160.20169.20179.20242.20244.20249.20294.20344.20362.20364.20366</t>
+  </si>
+  <si>
+    <t>RECURRENTE_100K-200K</t>
+  </si>
+  <si>
+    <t>5.27.246.920.951.954.956.972.974.980.982.989.994.1005.1007.10107.10157.10160.20109.20116.20120.20121.20146.20165.20178.20201</t>
+  </si>
+  <si>
+    <t>RECURRENTE_200K-300K</t>
+  </si>
+  <si>
+    <t>RECURRENTE_300K-400K</t>
+  </si>
+  <si>
+    <t>RECURRENTE_400K-500K</t>
+  </si>
+  <si>
+    <t>RECURRENTE_&gt;_500K</t>
+  </si>
+  <si>
+    <t>955.993.998.1001.1006.1009.10424.20103.20125.20310.20384.40151.50623.60159.60162.60192.60225.70103.70113</t>
+  </si>
+  <si>
+    <t>11.20096.20228.20238.20256.20260.20303.20361.40124.50805.60125.60191.60217.60253.61012.90504.90602.90671</t>
+  </si>
+  <si>
+    <t>939.961.962.987.1002.1010.1012.10137.10158.10162.20106.20114.20118.20137.20174.20211.20224.20230.20257.20277.20281.20289.20296.20299.20301.20306.20319.20367.20371.20372.20374.20381.20386.20388.20391.20395.50224.50812.50813.50824.50827.60128.60130.60133.60148.60163.60196.60198.60222.60257.90621</t>
+  </si>
+  <si>
+    <t>936.940.973.992.997.10163.20113.20159.20166.20173.20180.20200.20258.20272.20275.20290.20291.20331.40137.40143.50444.50607.50622.50819.50821.50825.60165.60190.60195.60202.60205.60206.60215.61004.70102.70638.90668</t>
   </si>
 </sst>
 </file>
@@ -71,10 +116,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -290,17 +340,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1000"/>
+  <dimension ref="A1:B994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="26" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="255.42578125" customWidth="1"/>
+    <col min="3" max="3" width="68.140625" customWidth="1"/>
+    <col min="4" max="26" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -315,18 +366,83 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>20246.957999999999</v>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>950</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1301,12 +1417,6 @@
     <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/excel/GRUPOS_CLIENTES.xlsx
+++ b/excel/GRUPOS_CLIENTES.xlsx
@@ -66,9 +66,6 @@
     <t>RECURRENTE_&gt;_500K</t>
   </si>
   <si>
-    <t>955.993.998.1001.1006.1009.10424.20103.20125.20310.20384.40151.50623.60159.60162.60192.60225.70103.70113</t>
-  </si>
-  <si>
     <t>11.20096.20228.20238.20256.20260.20303.20361.40124.50805.60125.60191.60217.60253.61012.90504.90602.90671</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>936.940.973.992.997.10163.20113.20159.20166.20173.20180.20200.20258.20272.20275.20290.20291.20331.40137.40143.50444.50607.50622.50819.50821.50825.60165.60190.60195.60202.60205.60206.60215.61004.70102.70638.90668</t>
+  </si>
+  <si>
+    <t>955.993.998.1001.1006.1009.10424.20103.20125.20310.20384.40151.50623.60159.60162.60192.60225.70103.70113.10425</t>
   </si>
 </sst>
 </file>
@@ -342,8 +342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B994"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -407,7 +407,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -415,7 +415,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -423,7 +423,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -431,7 +431,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/excel/GRUPOS_CLIENTES.xlsx
+++ b/excel/GRUPOS_CLIENTES.xlsx
@@ -30,15 +30,9 @@
     <t>MEJORAR</t>
   </si>
   <si>
-    <t>233.10167.20234.20292.20357.20379.20385.50102.50818.60124.60139.60158.60174.60258.70101</t>
-  </si>
-  <si>
     <t>PREMIUM</t>
   </si>
   <si>
-    <t>33.237.251.308.946.950.952.958.963.965.969.10165.20101.20110.20128.20148.20164.20236.20241.20246.20271.20284.20293.20309.20351.20380</t>
-  </si>
-  <si>
     <t>PREMIUM TOP</t>
   </si>
   <si>
@@ -76,6 +70,12 @@
   </si>
   <si>
     <t>955.993.998.1001.1006.1009.10424.20103.20125.20310.20384.40151.50623.60159.60162.60192.60225.70103.70113.10425</t>
+  </si>
+  <si>
+    <t>33.237.251.308.946.950.952.958.963.965.969.10165.20101.20110.20128.20148.20164.20236.20241.20246.20271.20284.20293.20309.20351.20380.20163</t>
+  </si>
+  <si>
+    <t>233.10167.20234.20292.20357.20379.20385.50102.50818.60124.60139.60158.60174.60258.70101.3</t>
   </si>
 </sst>
 </file>
@@ -116,10 +116,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -343,7 +342,7 @@
   <dimension ref="A1:B994"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -366,76 +365,76 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
         <v>949</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="2"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/excel/GRUPOS_CLIENTES.xlsx
+++ b/excel/GRUPOS_CLIENTES.xlsx
@@ -75,7 +75,7 @@
     <t>33.237.251.308.946.950.952.958.963.965.969.10165.20101.20110.20128.20148.20164.20236.20241.20246.20271.20284.20293.20309.20351.20380.20163</t>
   </si>
   <si>
-    <t>233.10167.20234.20292.20357.20379.20385.50102.50818.60124.60139.60158.60174.60258.70101.3</t>
+    <t>233.10167.20234.20292.20357.20379.20385.50102.50818.60124.60139.60158.60174.60258.70101.3.70114</t>
   </si>
 </sst>
 </file>

--- a/excel/GRUPOS_CLIENTES.xlsx
+++ b/excel/GRUPOS_CLIENTES.xlsx
@@ -72,10 +72,10 @@
     <t>955.993.998.1001.1006.1009.10424.20103.20125.20310.20384.40151.50623.60159.60162.60192.60225.70103.70113.10425</t>
   </si>
   <si>
-    <t>33.237.251.308.946.950.952.958.963.965.969.10165.20101.20110.20128.20148.20164.20236.20241.20246.20271.20284.20293.20309.20351.20380.20163</t>
-  </si>
-  <si>
     <t>233.10167.20234.20292.20357.20379.20385.50102.50818.60124.60139.60158.60174.60258.70101.3.70114</t>
+  </si>
+  <si>
+    <t>33.237.251.308.946.950.952.958.963.965.969.10165.20101.20110.20128.20148.20164.20236.20241.20246.20271.20284.20293.20309.20351.20380.20163.50815</t>
   </si>
 </sst>
 </file>
@@ -342,7 +342,7 @@
   <dimension ref="A1:B994"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -366,7 +366,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -374,7 +374,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/excel/GRUPOS_CLIENTES.xlsx
+++ b/excel/GRUPOS_CLIENTES.xlsx
@@ -72,10 +72,10 @@
     <t>955.993.998.1001.1006.1009.10424.20103.20125.20310.20384.40151.50623.60159.60162.60192.60225.70103.70113.10425</t>
   </si>
   <si>
-    <t>233.10167.20234.20292.20357.20379.20385.50102.50818.60124.60139.60158.60174.60258.70101.3.70114</t>
-  </si>
-  <si>
     <t>33.237.251.308.946.950.952.958.963.965.969.10165.20101.20110.20128.20148.20164.20236.20241.20246.20271.20284.20293.20309.20351.20380.20163.50815</t>
+  </si>
+  <si>
+    <t>233.10167.20234.20292.20357.20379.20385.50102.50818.60124.60139.60158.60174.60258.70101.3.70114.20129</t>
   </si>
 </sst>
 </file>
@@ -342,7 +342,7 @@
   <dimension ref="A1:B994"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -366,7 +366,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -374,7 +374,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/excel/GRUPOS_CLIENTES.xlsx
+++ b/excel/GRUPOS_CLIENTES.xlsx
@@ -60,12 +60,6 @@
     <t>RECURRENTE_&gt;_500K</t>
   </si>
   <si>
-    <t>11.20096.20228.20238.20256.20260.20303.20361.40124.50805.60125.60191.60217.60253.61012.90504.90602.90671</t>
-  </si>
-  <si>
-    <t>939.961.962.987.1002.1010.1012.10137.10158.10162.20106.20114.20118.20137.20174.20211.20224.20230.20257.20277.20281.20289.20296.20299.20301.20306.20319.20367.20371.20372.20374.20381.20386.20388.20391.20395.50224.50812.50813.50824.50827.60128.60130.60133.60148.60163.60196.60198.60222.60257.90621</t>
-  </si>
-  <si>
     <t>936.940.973.992.997.10163.20113.20159.20166.20173.20180.20200.20258.20272.20275.20290.20291.20331.40137.40143.50444.50607.50622.50819.50821.50825.60165.60190.60195.60202.60205.60206.60215.61004.70102.70638.90668</t>
   </si>
   <si>
@@ -76,13 +70,19 @@
   </si>
   <si>
     <t>233.10167.20234.20292.20357.20379.20385.50102.50818.60124.60139.60158.60174.60258.70101.3.70114.20129</t>
+  </si>
+  <si>
+    <t>939.961.962.987.1002.1010.1012.10137.10158.10162.20106.20114.20118.20137.20174.20211.20224.20230.20257.20277.20281.20289.20296.20299.20301.20306.20319.20367.20371.20372.20374.20381.20386.20388.20391.20395.50224.50812.50813.50824.50827.60128.60130.60133.60148.60163.60196.60198.60222.60257.90621.40144</t>
+  </si>
+  <si>
+    <t>11.20096.20228.20238.20256.20260.20303.20361.40124.50805.60125.60191.60217.60253.61012.90504.90602.90671.90509</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +93,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -116,14 +131,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,15 +358,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.85546875" customWidth="1"/>
     <col min="2" max="2" width="255.42578125" customWidth="1"/>
-    <col min="3" max="3" width="68.140625" customWidth="1"/>
+    <col min="3" max="3" width="114.7109375" customWidth="1"/>
     <col min="4" max="26" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -366,7 +383,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -374,7 +391,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -405,8 +422,8 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -414,7 +431,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -422,15 +439,15 @@
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
+      <c r="B10" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/excel/GRUPOS_CLIENTES.xlsx
+++ b/excel/GRUPOS_CLIENTES.xlsx
@@ -39,9 +39,6 @@
     <t>RECURRENTE_&lt;_100K</t>
   </si>
   <si>
-    <t>12.20.265.938.947.970.999.1000.20094.20095.20108.20117.20140.20142.20156.20160.20169.20179.20242.20244.20249.20294.20344.20362.20364.20366</t>
-  </si>
-  <si>
     <t>RECURRENTE_100K-200K</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>11.20096.20228.20238.20256.20260.20303.20361.40124.50805.60125.60191.60217.60253.61012.90504.90602.90671.90509</t>
+  </si>
+  <si>
+    <t>12.20.265.938.947.970.999.1000.20094.20095.20108.20117.20140.20142.20156.20160.20169.20179.20242.20244.20249.20294.20344.20362.20364.20366.70106</t>
   </si>
 </sst>
 </file>
@@ -358,8 +358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -383,7 +383,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -391,7 +391,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -407,47 +407,47 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/excel/GRUPOS_CLIENTES.xlsx
+++ b/excel/GRUPOS_CLIENTES.xlsx
@@ -42,9 +42,6 @@
     <t>RECURRENTE_100K-200K</t>
   </si>
   <si>
-    <t>5.27.246.920.951.954.956.972.974.980.982.989.994.1005.1007.10107.10157.10160.20109.20116.20120.20121.20146.20165.20178.20201</t>
-  </si>
-  <si>
     <t>RECURRENTE_200K-300K</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>12.20.265.938.947.970.999.1000.20094.20095.20108.20117.20140.20142.20156.20160.20169.20179.20242.20244.20249.20294.20344.20362.20364.20366.70106</t>
+  </si>
+  <si>
+    <t>5.27.246.920.951.954.956.972.974.980.982.989.994.1005.1007.10107.10157.10160.20109.20116.20120.20121.20146.20165.20178.20201.60270.60134</t>
   </si>
 </sst>
 </file>
@@ -358,8 +358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -383,7 +383,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -391,7 +391,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -407,7 +407,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -415,39 +415,39 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/excel/GRUPOS_CLIENTES.xlsx
+++ b/excel/GRUPOS_CLIENTES.xlsx
@@ -60,9 +60,6 @@
     <t>955.993.998.1001.1006.1009.10424.20103.20125.20310.20384.40151.50623.60159.60162.60192.60225.70103.70113.10425</t>
   </si>
   <si>
-    <t>33.237.251.308.946.950.952.958.963.965.969.10165.20101.20110.20128.20148.20164.20236.20241.20246.20271.20284.20293.20309.20351.20380.20163.50815</t>
-  </si>
-  <si>
     <t>233.10167.20234.20292.20357.20379.20385.50102.50818.60124.60139.60158.60174.60258.70101.3.70114.20129</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>5.27.246.920.951.954.956.972.974.980.982.989.994.1005.1007.10107.10157.10160.20109.20116.20120.20121.20146.20165.20178.20201.60270.60134</t>
+  </si>
+  <si>
+    <t>33.237.251.308.946.950.952.958.963.965.969.10165.20101.20110.20128.20148.20164.20236.20241.20246.20271.20284.20293.20309.20351.20380.20163.50815.50808</t>
   </si>
 </sst>
 </file>
@@ -359,7 +359,7 @@
   <dimension ref="A1:B994"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -383,7 +383,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -391,7 +391,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -407,7 +407,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -415,7 +415,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -423,7 +423,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -447,7 +447,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/excel/GRUPOS_CLIENTES.xlsx
+++ b/excel/GRUPOS_CLIENTES.xlsx
@@ -57,9 +57,6 @@
     <t>936.940.973.992.997.10163.20113.20159.20166.20173.20180.20200.20258.20272.20275.20290.20291.20331.40137.40143.50444.50607.50622.50819.50821.50825.60165.60190.60195.60202.60205.60206.60215.61004.70102.70638.90668</t>
   </si>
   <si>
-    <t>955.993.998.1001.1006.1009.10424.20103.20125.20310.20384.40151.50623.60159.60162.60192.60225.70103.70113.10425</t>
-  </si>
-  <si>
     <t>233.10167.20234.20292.20357.20379.20385.50102.50818.60124.60139.60158.60174.60258.70101.3.70114.20129</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>33.237.251.308.946.950.952.958.963.965.969.10165.20101.20110.20128.20148.20164.20236.20241.20246.20271.20284.20293.20309.20351.20380.20163.50815.50808</t>
+  </si>
+  <si>
+    <t>955.993.998.1001.1006.1009.10424.20103.20125.20310.20384.40151.50623.60159.60162.60192.60225.70103.70113.10425.60126</t>
   </si>
 </sst>
 </file>
@@ -359,7 +359,7 @@
   <dimension ref="A1:B994"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -383,7 +383,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -391,7 +391,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -407,7 +407,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -415,7 +415,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -423,7 +423,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -439,7 +439,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -447,7 +447,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/excel/GRUPOS_CLIENTES.xlsx
+++ b/excel/GRUPOS_CLIENTES.xlsx
@@ -75,7 +75,7 @@
     <t>33.237.251.308.946.950.952.958.963.965.969.10165.20101.20110.20128.20148.20164.20236.20241.20246.20271.20284.20293.20309.20351.20380.20163.50815.50808</t>
   </si>
   <si>
-    <t>955.993.998.1001.1006.1009.10424.20103.20125.20310.20384.40151.50623.60159.60162.60192.60225.70103.70113.10425.60126</t>
+    <t>955.993.998.1001.1006.1009.10424.20103.20125.20310.20384.40151.50623.60159.60162.60192.60225.70103.70113.10425.60126.40139</t>
   </si>
 </sst>
 </file>

--- a/excel/GRUPOS_CLIENTES.xlsx
+++ b/excel/GRUPOS_CLIENTES.xlsx
@@ -69,13 +69,13 @@
     <t>12.20.265.938.947.970.999.1000.20094.20095.20108.20117.20140.20142.20156.20160.20169.20179.20242.20244.20249.20294.20344.20362.20364.20366.70106</t>
   </si>
   <si>
-    <t>5.27.246.920.951.954.956.972.974.980.982.989.994.1005.1007.10107.10157.10160.20109.20116.20120.20121.20146.20165.20178.20201.60270.60134</t>
-  </si>
-  <si>
     <t>33.237.251.308.946.950.952.958.963.965.969.10165.20101.20110.20128.20148.20164.20236.20241.20246.20271.20284.20293.20309.20351.20380.20163.50815.50808</t>
   </si>
   <si>
     <t>955.993.998.1001.1006.1009.10424.20103.20125.20310.20384.40151.50623.60159.60162.60192.60225.70103.70113.10425.60126.40139</t>
+  </si>
+  <si>
+    <t>5.27.246.920.951.954.956.972.974.980.982.989.994.1005.1007.10107.10157.10160.20109.20116.20120.20121.20146.20165.20178.20201.60270.60134.40125</t>
   </si>
 </sst>
 </file>
@@ -359,7 +359,7 @@
   <dimension ref="A1:B994"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -391,7 +391,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -415,7 +415,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -439,7 +439,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/excel/GRUPOS_CLIENTES.xlsx
+++ b/excel/GRUPOS_CLIENTES.xlsx
@@ -66,9 +66,6 @@
     <t>11.20096.20228.20238.20256.20260.20303.20361.40124.50805.60125.60191.60217.60253.61012.90504.90602.90671.90509</t>
   </si>
   <si>
-    <t>12.20.265.938.947.970.999.1000.20094.20095.20108.20117.20140.20142.20156.20160.20169.20179.20242.20244.20249.20294.20344.20362.20364.20366.70106</t>
-  </si>
-  <si>
     <t>33.237.251.308.946.950.952.958.963.965.969.10165.20101.20110.20128.20148.20164.20236.20241.20246.20271.20284.20293.20309.20351.20380.20163.50815.50808</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>5.27.246.920.951.954.956.972.974.980.982.989.994.1005.1007.10107.10157.10160.20109.20116.20120.20121.20146.20165.20178.20201.60270.60134.40125</t>
+  </si>
+  <si>
+    <t>12.20.265.938.947.970.999.1000.20094.20095.20108.20117.20140.20142.20156.20160.20169.20179.20242.20244.20249.20294.20344.20362.20364.20366.70106.60109</t>
   </si>
 </sst>
 </file>
@@ -358,8 +358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -391,7 +391,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -407,7 +407,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -415,7 +415,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -439,7 +439,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/excel/GRUPOS_CLIENTES.xlsx
+++ b/excel/GRUPOS_CLIENTES.xlsx
@@ -63,19 +63,19 @@
     <t>939.961.962.987.1002.1010.1012.10137.10158.10162.20106.20114.20118.20137.20174.20211.20224.20230.20257.20277.20281.20289.20296.20299.20301.20306.20319.20367.20371.20372.20374.20381.20386.20388.20391.20395.50224.50812.50813.50824.50827.60128.60130.60133.60148.60163.60196.60198.60222.60257.90621.40144</t>
   </si>
   <si>
-    <t>11.20096.20228.20238.20256.20260.20303.20361.40124.50805.60125.60191.60217.60253.61012.90504.90602.90671.90509</t>
-  </si>
-  <si>
     <t>33.237.251.308.946.950.952.958.963.965.969.10165.20101.20110.20128.20148.20164.20236.20241.20246.20271.20284.20293.20309.20351.20380.20163.50815.50808</t>
   </si>
   <si>
-    <t>955.993.998.1001.1006.1009.10424.20103.20125.20310.20384.40151.50623.60159.60162.60192.60225.70103.70113.10425.60126.40139</t>
-  </si>
-  <si>
     <t>5.27.246.920.951.954.956.972.974.980.982.989.994.1005.1007.10107.10157.10160.20109.20116.20120.20121.20146.20165.20178.20201.60270.60134.40125</t>
   </si>
   <si>
     <t>12.20.265.938.947.970.999.1000.20094.20095.20108.20117.20140.20142.20156.20160.20169.20179.20242.20244.20249.20294.20344.20362.20364.20366.70106.60109</t>
+  </si>
+  <si>
+    <t>11.20096.20228.20238.20256.20260.20303.20361.40124.50805.60125.60191.60217.60253.61012.90504.90602.90671.90509.20282</t>
+  </si>
+  <si>
+    <t>955.993.998.1001.1006.1009.10424.20103.20125.20310.20384.40151.50623.60159.60162.60192.60225.70103.70113.10425.60126.40139.20205</t>
   </si>
 </sst>
 </file>
@@ -358,8 +358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B994"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -391,7 +391,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -407,7 +407,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -415,7 +415,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -439,7 +439,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -447,7 +447,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/excel/GRUPOS_CLIENTES.xlsx
+++ b/excel/GRUPOS_CLIENTES.xlsx
@@ -60,22 +60,22 @@
     <t>233.10167.20234.20292.20357.20379.20385.50102.50818.60124.60139.60158.60174.60258.70101.3.70114.20129</t>
   </si>
   <si>
-    <t>939.961.962.987.1002.1010.1012.10137.10158.10162.20106.20114.20118.20137.20174.20211.20224.20230.20257.20277.20281.20289.20296.20299.20301.20306.20319.20367.20371.20372.20374.20381.20386.20388.20391.20395.50224.50812.50813.50824.50827.60128.60130.60133.60148.60163.60196.60198.60222.60257.90621.40144</t>
-  </si>
-  <si>
     <t>33.237.251.308.946.950.952.958.963.965.969.10165.20101.20110.20128.20148.20164.20236.20241.20246.20271.20284.20293.20309.20351.20380.20163.50815.50808</t>
   </si>
   <si>
-    <t>5.27.246.920.951.954.956.972.974.980.982.989.994.1005.1007.10107.10157.10160.20109.20116.20120.20121.20146.20165.20178.20201.60270.60134.40125</t>
-  </si>
-  <si>
-    <t>12.20.265.938.947.970.999.1000.20094.20095.20108.20117.20140.20142.20156.20160.20169.20179.20242.20244.20249.20294.20344.20362.20364.20366.70106.60109</t>
-  </si>
-  <si>
     <t>11.20096.20228.20238.20256.20260.20303.20361.40124.50805.60125.60191.60217.60253.61012.90504.90602.90671.90509.20282</t>
   </si>
   <si>
     <t>955.993.998.1001.1006.1009.10424.20103.20125.20310.20384.40151.50623.60159.60162.60192.60225.70103.70113.10425.60126.40139.20205</t>
+  </si>
+  <si>
+    <t>12.20.265.938.947.970.999.1000.20094.20095.20108.20117.20140.20142.20156.20160.20169.20179.20242.20244.20249.20294.20344.20362.20364.20366.70106.60109.20189</t>
+  </si>
+  <si>
+    <t>5.27.246.920.951.954.956.972.974.980.982.989.994.1005.1007.10107.10157.10160.20109.20116.20120.20121.20146.20165.20178.20201.60270.60134.40125.70115</t>
+  </si>
+  <si>
+    <t>939.961.962.987.1002.1010.1012.10137.10158.10162.20106.20114.20118.20137.20174.20211.20224.20230.20257.20277.20281.20289.20296.20299.20301.20306.20319.20367.20371.20372.20374.20381.20386.20388.20391.20395.50224.50812.50813.50824.50827.60128.60130.60133.60148.60163.60196.60198.60222.60257.90621.40144.20396</t>
   </si>
 </sst>
 </file>
@@ -358,8 +358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -391,7 +391,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -415,15 +415,15 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>13</v>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -439,15 +439,15 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>17</v>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/excel/GRUPOS_CLIENTES.xlsx
+++ b/excel/GRUPOS_CLIENTES.xlsx
@@ -72,10 +72,10 @@
     <t>12.20.265.938.947.970.999.1000.20094.20095.20108.20117.20140.20142.20156.20160.20169.20179.20242.20244.20249.20294.20344.20362.20364.20366.70106.60109.20189</t>
   </si>
   <si>
-    <t>5.27.246.920.951.954.956.972.974.980.982.989.994.1005.1007.10107.10157.10160.20109.20116.20120.20121.20146.20165.20178.20201.60270.60134.40125.70115</t>
-  </si>
-  <si>
     <t>939.961.962.987.1002.1010.1012.10137.10158.10162.20106.20114.20118.20137.20174.20211.20224.20230.20257.20277.20281.20289.20296.20299.20301.20306.20319.20367.20371.20372.20374.20381.20386.20388.20391.20395.50224.50812.50813.50824.50827.60128.60130.60133.60148.60163.60196.60198.60222.60257.90621.40144.20396</t>
+  </si>
+  <si>
+    <t>5.27.246.920.951.954.956.972.974.980.982.989.994.1005.1007.10107.10157.10160.20109.20116.20120.20121.20146.20165.20178.20201.60270.60134.40125.70115.60150</t>
   </si>
 </sst>
 </file>
@@ -358,8 +358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B994"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -415,7 +415,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -423,7 +423,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/excel/GRUPOS_CLIENTES.xlsx
+++ b/excel/GRUPOS_CLIENTES.xlsx
@@ -69,13 +69,13 @@
     <t>955.993.998.1001.1006.1009.10424.20103.20125.20310.20384.40151.50623.60159.60162.60192.60225.70103.70113.10425.60126.40139.20205</t>
   </si>
   <si>
-    <t>12.20.265.938.947.970.999.1000.20094.20095.20108.20117.20140.20142.20156.20160.20169.20179.20242.20244.20249.20294.20344.20362.20364.20366.70106.60109.20189</t>
-  </si>
-  <si>
     <t>939.961.962.987.1002.1010.1012.10137.10158.10162.20106.20114.20118.20137.20174.20211.20224.20230.20257.20277.20281.20289.20296.20299.20301.20306.20319.20367.20371.20372.20374.20381.20386.20388.20391.20395.50224.50812.50813.50824.50827.60128.60130.60133.60148.60163.60196.60198.60222.60257.90621.40144.20396</t>
   </si>
   <si>
     <t>5.27.246.920.951.954.956.972.974.980.982.989.994.1005.1007.10107.10157.10160.20109.20116.20120.20121.20146.20165.20178.20201.60270.60134.40125.70115.60150</t>
+  </si>
+  <si>
+    <t>12.20.265.938.947.970.999.1000.20094.20095.20108.20117.20140.20142.20156.20160.20169.20179.20242.20244.20249.20294.20344.20362.20364.20366.70106.60109.20189.90622.60286.60284.60281.60170.60241.60250.60282.60242.90631.60266.60283.20397.1035.1031.50611.10166.60290.60289.60291.60287.00989.1034.50832.60285.50831.951.1038.1037.50445.1023.1030.1033.1036.1029.50630.1024.1020.1027.1025.1028.50830.1021.1026.1032.20183.1036.1039.1040</t>
   </si>
 </sst>
 </file>
@@ -359,7 +359,7 @@
   <dimension ref="A1:B994"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -407,7 +407,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -415,7 +415,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -423,7 +423,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/excel/GRUPOS_CLIENTES.xlsx
+++ b/excel/GRUPOS_CLIENTES.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -72,10 +72,10 @@
     <t>939.961.962.987.1002.1010.1012.10137.10158.10162.20106.20114.20118.20137.20174.20211.20224.20230.20257.20277.20281.20289.20296.20299.20301.20306.20319.20367.20371.20372.20374.20381.20386.20388.20391.20395.50224.50812.50813.50824.50827.60128.60130.60133.60148.60163.60196.60198.60222.60257.90621.40144.20396</t>
   </si>
   <si>
-    <t>5.27.246.920.951.954.956.972.974.980.982.989.994.1005.1007.10107.10157.10160.20109.20116.20120.20121.20146.20165.20178.20201.60270.60134.40125.70115.60150</t>
-  </si>
-  <si>
     <t>12.20.265.938.947.970.999.1000.20094.20095.20108.20117.20140.20142.20156.20160.20169.20179.20242.20244.20249.20294.20344.20362.20364.20366.70106.60109.20189.90622.60286.60284.60281.60170.60241.60250.60282.60242.90631.60266.60283.20397.1035.1031.50611.10166.60290.60289.60291.60287.00989.1034.50832.60285.50831.951.1038.1037.50445.1023.1030.1033.1036.1029.50630.1024.1020.1027.1025.1028.50830.1021.1026.1032.20183.1036.1039.1040</t>
+  </si>
+  <si>
+    <t>5.27.246.920.951.954.956.972.974.980.982.989.994.1005.1007.10107.10157.10160.20109.20116.20120.20121.20146.20165.20178.20201.60270.60134.40125.70115.60150.50230</t>
   </si>
 </sst>
 </file>
@@ -359,7 +359,7 @@
   <dimension ref="A1:B994"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -407,7 +407,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -415,7 +415,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/excel/GRUPOS_CLIENTES.xlsx
+++ b/excel/GRUPOS_CLIENTES.xlsx
@@ -75,7 +75,7 @@
     <t>12.20.265.938.947.970.999.1000.20094.20095.20108.20117.20140.20142.20156.20160.20169.20179.20242.20244.20249.20294.20344.20362.20364.20366.70106.60109.20189.90622.60286.60284.60281.60170.60241.60250.60282.60242.90631.60266.60283.20397.1035.1031.50611.10166.60290.60289.60291.60287.00989.1034.50832.60285.50831.951.1038.1037.50445.1023.1030.1033.1036.1029.50630.1024.1020.1027.1025.1028.50830.1021.1026.1032.20183.1036.1039.1040</t>
   </si>
   <si>
-    <t>5.27.246.920.951.954.956.972.974.980.982.989.994.1005.1007.10107.10157.10160.20109.20116.20120.20121.20146.20165.20178.20201.60270.60134.40125.70115.60150.50230</t>
+    <t>5.27.246.920.951.954.956.972.974.980.982.989.994.1005.1007.10107.10157.10160.20109.20116.20120.20121.20146.20165.20178.20201.60270.60134.40125.70115.60150.50230.60278</t>
   </si>
 </sst>
 </file>

--- a/excel/GRUPOS_CLIENTES.xlsx
+++ b/excel/GRUPOS_CLIENTES.xlsx
@@ -66,9 +66,6 @@
     <t>11.20096.20228.20238.20256.20260.20303.20361.40124.50805.60125.60191.60217.60253.61012.90504.90602.90671.90509.20282</t>
   </si>
   <si>
-    <t>955.993.998.1001.1006.1009.10424.20103.20125.20310.20384.40151.50623.60159.60162.60192.60225.70103.70113.10425.60126.40139.20205</t>
-  </si>
-  <si>
     <t>939.961.962.987.1002.1010.1012.10137.10158.10162.20106.20114.20118.20137.20174.20211.20224.20230.20257.20277.20281.20289.20296.20299.20301.20306.20319.20367.20371.20372.20374.20381.20386.20388.20391.20395.50224.50812.50813.50824.50827.60128.60130.60133.60148.60163.60196.60198.60222.60257.90621.40144.20396</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>5.27.246.920.951.954.956.972.974.980.982.989.994.1005.1007.10107.10157.10160.20109.20116.20120.20121.20146.20165.20178.20201.60270.60134.40125.70115.60150.50230.60278</t>
+  </si>
+  <si>
+    <t>955.993.998.1001.1006.1009.10424.20103.20125.20310.20384.40151.50623.60159.60162.60192.60225.70103.70113.10425.60126.40139.20205.60280</t>
   </si>
 </sst>
 </file>
@@ -359,7 +359,7 @@
   <dimension ref="A1:B994"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -407,7 +407,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -415,7 +415,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -423,7 +423,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -439,7 +439,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/excel/GRUPOS_CLIENTES.xlsx
+++ b/excel/GRUPOS_CLIENTES.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -75,7 +75,7 @@
     <t>5.27.246.920.951.954.956.972.974.980.982.989.994.1005.1007.10107.10157.10160.20109.20116.20120.20121.20146.20165.20178.20201.60270.60134.40125.70115.60150.50230.60278</t>
   </si>
   <si>
-    <t>955.993.998.1001.1006.1009.10424.20103.20125.20310.20384.40151.50623.60159.60162.60192.60225.70103.70113.10425.60126.40139.20205.60280</t>
+    <t>955.993.998.1001.1006.1009.10424.20103.20125.20310.20384.40151.50623.60159.60162.60192.60225.70103.70113.10425.60126.40139.20205.60280.60274</t>
   </si>
 </sst>
 </file>

--- a/excel/GRUPOS_CLIENTES.xlsx
+++ b/excel/GRUPOS_CLIENTES.xlsx
@@ -60,9 +60,6 @@
     <t>233.10167.20234.20292.20357.20379.20385.50102.50818.60124.60139.60158.60174.60258.70101.3.70114.20129</t>
   </si>
   <si>
-    <t>33.237.251.308.946.950.952.958.963.965.969.10165.20101.20110.20128.20148.20164.20236.20241.20246.20271.20284.20293.20309.20351.20380.20163.50815.50808</t>
-  </si>
-  <si>
     <t>11.20096.20228.20238.20256.20260.20303.20361.40124.50805.60125.60191.60217.60253.61012.90504.90602.90671.90509.20282</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>955.993.998.1001.1006.1009.10424.20103.20125.20310.20384.40151.50623.60159.60162.60192.60225.70103.70113.10425.60126.40139.20205.60280.60274</t>
+  </si>
+  <si>
+    <t>33.237.251.308.946.950.952.958.963.965.969.10165.20101.20110.20128.20148.20164.20236.20241.20246.20271.20284.20293.20309.20351.20380.20163.50815.50808.60216</t>
   </si>
 </sst>
 </file>
@@ -359,7 +359,7 @@
   <dimension ref="A1:B994"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -391,7 +391,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -407,7 +407,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -415,7 +415,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -423,7 +423,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -439,7 +439,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -447,7 +447,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/excel/GRUPOS_CLIENTES.xlsx
+++ b/excel/GRUPOS_CLIENTES.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>NOMBRE_GRUPO</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>33.237.251.308.946.950.952.958.963.965.969.10165.20101.20110.20128.20148.20164.20236.20241.20246.20271.20284.20293.20309.20351.20380.20163.50815.50808.60216</t>
+  </si>
+  <si>
+    <t>949.1218.1959.5625</t>
   </si>
 </sst>
 </file>
@@ -136,11 +139,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,8 +361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -398,8 +401,8 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
-        <v>949</v>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -422,7 +425,7 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -446,7 +449,7 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
     </row>

--- a/excel/GRUPOS_CLIENTES.xlsx
+++ b/excel/GRUPOS_CLIENTES.xlsx
@@ -66,9 +66,6 @@
     <t>939.961.962.987.1002.1010.1012.10137.10158.10162.20106.20114.20118.20137.20174.20211.20224.20230.20257.20277.20281.20289.20296.20299.20301.20306.20319.20367.20371.20372.20374.20381.20386.20388.20391.20395.50224.50812.50813.50824.50827.60128.60130.60133.60148.60163.60196.60198.60222.60257.90621.40144.20396</t>
   </si>
   <si>
-    <t>12.20.265.938.947.970.999.1000.20094.20095.20108.20117.20140.20142.20156.20160.20169.20179.20242.20244.20249.20294.20344.20362.20364.20366.70106.60109.20189.90622.60286.60284.60281.60170.60241.60250.60282.60242.90631.60266.60283.20397.1035.1031.50611.10166.60290.60289.60291.60287.00989.1034.50832.60285.50831.951.1038.1037.50445.1023.1030.1033.1036.1029.50630.1024.1020.1027.1025.1028.50830.1021.1026.1032.20183.1036.1039.1040</t>
-  </si>
-  <si>
     <t>5.27.246.920.951.954.956.972.974.980.982.989.994.1005.1007.10107.10157.10160.20109.20116.20120.20121.20146.20165.20178.20201.60270.60134.40125.70115.60150.50230.60278</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>949.1218.1959.5625</t>
+  </si>
+  <si>
+    <t>12.20.265.938.947.970.999.1000.20094.20095.20108.20117.20140.20142.20156.20160.20169.20179.20242.20244.20249.20294.20344.20362.20364.20366.70106.60109.20189.90622.60286.60284.60281.60170.60241.60250.60282.60242.90631.60266.60283.20397.1035.1031.50611.10166.60290.60289.60291.60287.00989.1034.50832.60285.50831.951.1038.1037.50445.1023.1030.1033.1036.1029.50630.1024.1020.1027.1025.1028.50830.1021.1026.1032.20183.1036.1039.1040.60295.1045</t>
   </si>
 </sst>
 </file>
@@ -361,8 +361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -394,7 +394,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -402,7 +402,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -410,7 +410,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -418,7 +418,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -442,7 +442,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/excel/GRUPOS_CLIENTES.xlsx
+++ b/excel/GRUPOS_CLIENTES.xlsx
@@ -66,9 +66,6 @@
     <t>939.961.962.987.1002.1010.1012.10137.10158.10162.20106.20114.20118.20137.20174.20211.20224.20230.20257.20277.20281.20289.20296.20299.20301.20306.20319.20367.20371.20372.20374.20381.20386.20388.20391.20395.50224.50812.50813.50824.50827.60128.60130.60133.60148.60163.60196.60198.60222.60257.90621.40144.20396</t>
   </si>
   <si>
-    <t>5.27.246.920.951.954.956.972.974.980.982.989.994.1005.1007.10107.10157.10160.20109.20116.20120.20121.20146.20165.20178.20201.60270.60134.40125.70115.60150.50230.60278</t>
-  </si>
-  <si>
     <t>955.993.998.1001.1006.1009.10424.20103.20125.20310.20384.40151.50623.60159.60162.60192.60225.70103.70113.10425.60126.40139.20205.60280.60274</t>
   </si>
   <si>
@@ -78,7 +75,10 @@
     <t>949.1218.1959.5625</t>
   </si>
   <si>
-    <t>12.20.265.938.947.970.999.1000.20094.20095.20108.20117.20140.20142.20156.20160.20169.20179.20242.20244.20249.20294.20344.20362.20364.20366.70106.60109.20189.90622.60286.60284.60281.60170.60241.60250.60282.60242.90631.60266.60283.20397.1035.1031.50611.10166.60290.60289.60291.60287.00989.1034.50832.60285.50831.951.1038.1037.50445.1023.1030.1033.1036.1029.50630.1024.1020.1027.1025.1028.50830.1021.1026.1032.20183.1036.1039.1040.60295.1045</t>
+    <t>5.27.246.920.951.954.956.972.974.980.982.989.994.1005.1007.10107.10157.10160.20109.20116.20120.20121.20146.20165.20178.20201.60270.60134.40125.70115.60150.50230.60278.60299</t>
+  </si>
+  <si>
+    <t>12.20.265.938.947.970.999.1000.20094.20095.20108.20117.20140.20142.20156.20160.20169.20179.20242.20244.20249.20294.20344.20362.20364.20366.70106.60109.20189.90622.60286.60284.60281.60170.60241.60250.60282.60242.90631.60266.60283.20397.1035.1031.50611.10166.60290.60289.60291.60287.00989.1034.50832.60285.50831.951.1038.1037.50445.1023.1030.1033.1036.1029.50630.1024.1020.1027.1025.1028.50830.1021.1026.1032.20183.1036.1039.1040.60295.1045.60245</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -402,7 +402,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -418,7 +418,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -442,7 +442,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/excel/GRUPOS_CLIENTES.xlsx
+++ b/excel/GRUPOS_CLIENTES.xlsx
@@ -72,13 +72,13 @@
     <t>33.237.251.308.946.950.952.958.963.965.969.10165.20101.20110.20128.20148.20164.20236.20241.20246.20271.20284.20293.20309.20351.20380.20163.50815.50808.60216</t>
   </si>
   <si>
-    <t>949.1218.1959.5625</t>
-  </si>
-  <si>
     <t>5.27.246.920.951.954.956.972.974.980.982.989.994.1005.1007.10107.10157.10160.20109.20116.20120.20121.20146.20165.20178.20201.60270.60134.40125.70115.60150.50230.60278.60299</t>
   </si>
   <si>
     <t>12.20.265.938.947.970.999.1000.20094.20095.20108.20117.20140.20142.20156.20160.20169.20179.20242.20244.20249.20294.20344.20362.20364.20366.70106.60109.20189.90622.60286.60284.60281.60170.60241.60250.60282.60242.90631.60266.60283.20397.1035.1031.50611.10166.60290.60289.60291.60287.00989.1034.50832.60285.50831.951.1038.1037.50445.1023.1030.1033.1036.1029.50630.1024.1020.1027.1025.1028.50830.1021.1026.1032.20183.1036.1039.1040.60295.1045.60245</t>
+  </si>
+  <si>
+    <t>949.1218.1959.5625.1817.5737</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -410,7 +410,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -418,7 +418,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
